--- a/动力煤/eta/秦皇岛动力煤价格_月度数据.xlsx
+++ b/动力煤/eta/秦皇岛动力煤价格_月度数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,343 +453,354 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>753.8</v>
+        <v>770.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>733.8</v>
-      </c>
+          <t>2025/11/30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>780.6</v>
+        <v>771.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>695.3</v>
+        <v>740.9</v>
       </c>
       <c r="C4" t="n">
-        <v>787.2</v>
+        <v>785.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/08/31</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>689.7</v>
+        <v>695.3</v>
       </c>
       <c r="C5" t="n">
-        <v>763.2</v>
+        <v>785.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/31</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634.3</v>
+        <v>689.7</v>
       </c>
       <c r="C6" t="n">
-        <v>712.7</v>
+        <v>762.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617.5</v>
+        <v>634.3</v>
       </c>
       <c r="C7" t="n">
-        <v>683.8</v>
+        <v>712.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/05/31</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628.2</v>
+        <v>617.5</v>
       </c>
       <c r="C8" t="n">
-        <v>696.9</v>
+        <v>683.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>670.2</v>
+        <v>628.2</v>
       </c>
       <c r="C9" t="n">
-        <v>716.8</v>
+        <v>696.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.4</v>
+        <v>670.2</v>
       </c>
       <c r="C10" t="n">
-        <v>762.6</v>
+        <v>716.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>742.9</v>
+        <v>686.4</v>
       </c>
       <c r="C11" t="n">
-        <v>775.9</v>
+        <v>762.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>768.2</v>
+        <v>742.9</v>
       </c>
       <c r="C12" t="n">
-        <v>766.7</v>
+        <v>775.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>792.5</v>
+        <v>768.2</v>
       </c>
       <c r="C13" t="n">
-        <v>775.2</v>
+        <v>766.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024/11/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>844</v>
+        <v>792.5</v>
       </c>
       <c r="C14" t="n">
-        <v>806.3</v>
+        <v>774.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/30</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.7</v>
+        <v>844</v>
       </c>
       <c r="C15" t="n">
-        <v>840.6</v>
+        <v>805.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>857.1</v>
+        <v>859.7</v>
       </c>
       <c r="C16" t="n">
-        <v>859.7</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>844.3</v>
+        <v>857.1</v>
       </c>
       <c r="C17" t="n">
-        <v>846.7</v>
+        <v>859.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/31</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>850.7</v>
+        <v>844.3</v>
       </c>
       <c r="C18" t="n">
-        <v>820.8</v>
+        <v>846.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024/06/30</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>871.6</v>
+        <v>850.7</v>
       </c>
       <c r="C19" t="n">
-        <v>821.9</v>
+        <v>820.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/30</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>863.3</v>
+        <v>871.6</v>
       </c>
       <c r="C20" t="n">
-        <v>822.8</v>
+        <v>821.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>823.4</v>
+        <v>863.3</v>
       </c>
       <c r="C21" t="n">
-        <v>839.6</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024/03/31</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>883.3</v>
+        <v>823.4</v>
       </c>
       <c r="C22" t="n">
-        <v>861.5</v>
+        <v>838.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>925.6</v>
+        <v>883.3</v>
       </c>
       <c r="C23" t="n">
-        <v>868.8</v>
+        <v>860.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>918.6</v>
+        <v>925.6</v>
       </c>
       <c r="C24" t="n">
-        <v>866.7</v>
+        <v>868.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>943.6</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>918.6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>866.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>942</v>
+        <v>943.6</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1010</v>
+        <v>942</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2023/10/31</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>2023/09/30</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>926.8</v>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
